--- a/Diagramas_Figuras/DashBoard/DashBoard_Gestor_Graficos.xlsx
+++ b/Diagramas_Figuras/DashBoard/DashBoard_Gestor_Graficos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Lucr0</t>
   </si>
@@ -654,7 +654,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32479091300602925"/>
+          <c:y val="0.13156801994301998"/>
+          <c:w val="0.41058204134366927"/>
+          <c:h val="0.67903952991452987"/>
+        </c:manualLayout>
+      </c:layout>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -685,6 +695,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4BDB-4443-B039-1A19F607C83F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -700,6 +715,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4BDB-4443-B039-1A19F607C83F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -715,6 +735,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4BDB-4443-B039-1A19F607C83F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1394,6 +1419,973 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="382760640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8641639742993772E-2"/>
+          <c:y val="0.24792929292929292"/>
+          <c:w val="0.91135836025700623"/>
+          <c:h val="0.57998289986478968"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>um</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$56:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6DC-459D-8217-2325AA7767F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dois </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$56:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$56:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6DC-459D-8217-2325AA7767F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="356909592"/>
+        <c:axId val="356909920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="356909592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356909920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="356909920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356909592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>um</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$56:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B5F-448B-9CFD-687702ADE7CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dois </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$56:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$56:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B5F-448B-9CFD-687702ADE7CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="100"/>
+        <c:axId val="365778360"/>
+        <c:axId val="365779016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365778360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365779016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365779016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365778360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,6 +2625,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3629,6 +4701,1014 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3775,16 +5855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3804,6 +5884,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34744A62-C9AA-4649-96D3-C962CBD03F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B154A137-D7CD-428D-81F6-6D3EDA1868B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4109,10 +6261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:Q47"/>
+  <dimension ref="D3:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,6 +6593,135 @@
         <v>4</v>
       </c>
     </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>2001</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>2002</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>2003</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>2004</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>2005</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>2006</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>2007</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>2008</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>2009</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>2010</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>2013</v>
+      </c>
+      <c r="F66">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Diagramas_Figuras/DashBoard/DashBoard_Gestor_Graficos.xlsx
+++ b/Diagramas_Figuras/DashBoard/DashBoard_Gestor_Graficos.xlsx
@@ -960,10 +960,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$D$47</c:f>
+              <c:f>Sheet1!$D$37:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -984,28 +984,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$E$47</c:f>
+              <c:f>Sheet1!$E$37:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1026,18 +1014,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,10 +1065,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$D$47</c:f>
+              <c:f>Sheet1!$D$37:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -1113,28 +1089,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$37:$F$47</c:f>
+              <c:f>Sheet1!$F$37:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1155,18 +1119,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,10 +1170,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$D$47</c:f>
+              <c:f>Sheet1!$D$37:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -1242,28 +1194,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$37:$G$47</c:f>
+              <c:f>Sheet1!$G$37:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1284,18 +1224,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5855,16 +5783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514352</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5891,16 +5819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6263,8 +6191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6537,62 +6465,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>2008</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>2009</v>
-      </c>
-      <c r="E45">
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <v>12</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>2010</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-      <c r="F46">
-        <v>14</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <v>2013</v>
-      </c>
-      <c r="E47">
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <v>12</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-    </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>6</v>
